--- a/data/trans_orig/P36B08_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA63AC4-10A1-4ECD-83C1-B7CC2977CA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A02265-E13F-4A02-8127-CE1EE9E8EB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF49ED80-8145-435E-A76D-FF499396B9CA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEA8DC34-588B-4259-86BC-B98962BBA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,73%</t>
   </si>
   <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,75%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>94,17%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
@@ -104,10 +104,10 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,10 +122,10 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>Siete o más vasos a la semana</t>
@@ -134,25 +134,25 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,25%</t>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,79 +164,79 @@
     <t>90,32%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -245,235 +245,244 @@
     <t>91,7%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>94,21%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>6,57%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -482,148 +491,160 @@
     <t>76,66%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1038,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E66C38-7360-4C3C-863A-F4F9D7FA49C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55B107-B733-49DA-8149-03296842737E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1398,13 +1419,13 @@
         <v>861126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1419,13 +1440,13 @@
         <v>10991</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1434,13 +1455,13 @@
         <v>6669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -1449,13 +1470,13 @@
         <v>17660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,10 +1679,10 @@
         <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,13 +1697,13 @@
         <v>30775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -1691,13 +1712,13 @@
         <v>11372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -1706,13 +1727,13 @@
         <v>42148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,7 +1789,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1780,13 +1801,13 @@
         <v>654023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7">
         <v>1098</v>
@@ -1795,13 +1816,13 @@
         <v>718443</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>1698</v>
@@ -1810,13 +1831,13 @@
         <v>1372466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,13 +1852,13 @@
         <v>19823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1846,13 +1867,13 @@
         <v>17748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -1861,13 +1882,13 @@
         <v>37572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1903,13 @@
         <v>46814</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -1897,13 +1918,13 @@
         <v>10663</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -1912,13 +1933,13 @@
         <v>57476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1995,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1986,13 +2007,13 @@
         <v>504685</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>965</v>
@@ -2001,13 +2022,13 @@
         <v>574919</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>1526</v>
@@ -2016,13 +2037,13 @@
         <v>1079603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2058,13 @@
         <v>40191</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -2052,13 +2073,13 @@
         <v>11281</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -2067,13 +2088,13 @@
         <v>51472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2109,13 @@
         <v>53202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2103,13 +2124,13 @@
         <v>9667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -2118,13 +2139,13 @@
         <v>62868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,7 +2201,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2192,13 +2213,13 @@
         <v>533163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>1641</v>
@@ -2207,13 +2228,13 @@
         <v>991443</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>2425</v>
@@ -2222,13 +2243,13 @@
         <v>1524606</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2264,13 @@
         <v>49929</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -2258,13 +2279,13 @@
         <v>20562</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -2273,13 +2294,13 @@
         <v>70491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2315,13 @@
         <v>112422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -2309,13 +2330,13 @@
         <v>13991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>198</v>
@@ -2324,13 +2345,13 @@
         <v>126413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2419,13 @@
         <v>2923723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>5163</v>
@@ -2413,28 +2434,28 @@
         <v>3674887</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>8039</v>
       </c>
       <c r="N28" s="7">
-        <v>6598612</v>
+        <v>6598611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2470,13 @@
         <v>164686</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>105</v>
@@ -2464,13 +2485,13 @@
         <v>68346</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>270</v>
@@ -2479,13 +2500,13 @@
         <v>233032</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2521,13 @@
         <v>287817</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>91</v>
@@ -2515,13 +2536,13 @@
         <v>62332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>416</v>
@@ -2530,13 +2551,13 @@
         <v>350150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,7 +2599,7 @@
         <v>8725</v>
       </c>
       <c r="N31" s="7">
-        <v>7181794</v>
+        <v>7181793</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -2592,7 +2613,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
